--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4843AC6C-BB8C-4CE9-A5B8-B130494EC94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773FF475-4337-40B4-9673-2B3A21FFE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCC_Table" sheetId="1" r:id="rId1"/>
@@ -2663,26 +2663,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}">
   <dimension ref="B2:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3029,102 +3029,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="15"/>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="15"/>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
@@ -9198,7 +9198,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="16383" man="1"/>
+    <brk id="3" max="16383" man="1"/>
     <brk id="92" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773FF475-4337-40B4-9673-2B3A21FFE57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96364E1B-28E1-40B4-842D-26590CB9F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCC_Table" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BuffCC_Table!$B$5:$W$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3000,8 +3003,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}">
   <dimension ref="B2:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9182,6 +9188,7 @@
       <c r="B93" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:W5" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}"/>
   <mergeCells count="10">
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="U2:U3"/>

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96364E1B-28E1-40B4-842D-26590CB9F3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83D157-6FCD-462F-AD13-66E20C33FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCC_Table" sheetId="1" r:id="rId1"/>
@@ -3004,37 +3004,37 @@
   <dimension ref="B2:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.8984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.125" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -3132,7 +3132,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
         <v>217</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B5" s="10" t="s">
         <v>193</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <v>35</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <v>36</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <v>37</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <v>38</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <v>39</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <v>40</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <v>41</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <v>42</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <v>43</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <v>44</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <v>45</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <v>46</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <v>47</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <v>48</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <v>49</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <v>50</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <v>51</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <v>52</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <v>53</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <v>54</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <v>55</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <v>56</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <v>57</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
         <v>73</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
     </row>
   </sheetData>

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimmk\Desktop\Github Desktop\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83D157-6FCD-462F-AD13-66E20C33FB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49DA30F-60F8-44C4-B22B-7ACDD385EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
   <sheets>
     <sheet name="BuffCC_Table" sheetId="1" r:id="rId1"/>
@@ -3003,38 +3003,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}">
   <dimension ref="B2:W93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8984375" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.09765625" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>232</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -3132,7 +3132,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>217</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>193</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>35</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>36</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>37</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>38</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>39</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>40</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>41</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>42</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>43</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>44</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="1">
         <v>45</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>46</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>47</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>48</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>49</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>50</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>51</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="1">
         <v>52</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
         <v>53</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1">
         <v>54</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B60" s="1">
         <v>55</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B61" s="1">
         <v>56</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
         <v>57</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B78" s="1">
         <v>73</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
     </row>
   </sheetData>

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49DA30F-60F8-44C4-B22B-7ACDD385EE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A659B2-119E-4D75-B1A4-E016EFEB8D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BuffCC_Table!$B$5:$W$5</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1648,7 +1648,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="238">
   <si>
     <t>버프 / HP회복</t>
   </si>
@@ -2382,6 +2382,26 @@
   </si>
   <si>
     <t>번호</t>
+  </si>
+  <si>
+    <t>Buff088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 버프효과(마왕1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 버프효과(마왕2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕 스킬 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,13 +3021,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}">
-  <dimension ref="B2:W93"/>
+  <dimension ref="B2:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8858,10 +8878,10 @@
         <v>320083</v>
       </c>
       <c r="F88" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" s="5">
         <v>1</v>
@@ -8870,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="3">
-        <v>200009</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -8926,10 +8946,10 @@
         <v>320084</v>
       </c>
       <c r="F89" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -8938,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -9185,7 +9205,143 @@
       </c>
     </row>
     <row r="93" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
+      <c r="B93" s="1">
+        <v>88</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E93" s="3">
+        <v>320088</v>
+      </c>
+      <c r="F93" s="3">
+        <v>14</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0</v>
+      </c>
+      <c r="O93" s="4">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="5">
+        <v>0</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0</v>
+      </c>
+      <c r="T93" s="4">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>1</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>89</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E94" s="3">
+        <v>320089</v>
+      </c>
+      <c r="F94" s="3">
+        <v>14</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0</v>
+      </c>
+      <c r="O94" s="4">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0</v>
+      </c>
+      <c r="T94" s="4">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>1</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:W5" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}"/>
@@ -9206,7 +9362,7 @@
   <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16383" man="1"/>
-    <brk id="92" max="16383" man="1"/>
+    <brk id="94" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="1048575" man="1"/>

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\Def\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A659B2-119E-4D75-B1A4-E016EFEB8D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8A245-64ED-4245-A0A7-07CCE128E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BuffCC_Table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BuffCC_Table!$B$5:$W$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BuffCC_Table!$B$5:$W$94</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3024,10 +3024,10 @@
   <dimension ref="B2:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5008,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
@@ -5076,7 +5076,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="5">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="5">
-        <v>0.95</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="5">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N41" s="5">
         <v>1</v>
@@ -6436,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="5">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
@@ -6859,7 +6859,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="5">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="N58" s="5">
         <v>1</v>
@@ -7592,7 +7592,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="5">
-        <v>0.85</v>
+        <v>1.3</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="H70" s="5">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="5">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="N75" s="5">
         <v>1</v>
@@ -9344,7 +9344,7 @@
       <c r="B95" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:W5" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}"/>
+  <autoFilter ref="B5:W94" xr:uid="{54EC91A8-9DCA-4DA1-9225-69C506909EE6}"/>
   <mergeCells count="10">
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="U2:U3"/>

--- a/Documents/Table_List/05_BuffCC_Table.xlsx
+++ b/Documents/Table_List/05_BuffCC_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8A245-64ED-4245-A0A7-07CCE128E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECBCF5F-0A78-48CA-9A7E-748153CA734D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B150E8C9-E466-411C-B98F-0AB97987B57A}"/>
   </bookViews>
@@ -3027,7 +3027,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -3524,10 +3524,10 @@
         <v>4</v>
       </c>
       <c r="L9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -3592,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="L10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="5">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="N10" s="5">
         <v>1</v>
